--- a/publication/web-root/matchsync/StructureDefinition-ms-bundle.xlsx
+++ b/publication/web-root/matchsync/StructureDefinition-ms-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T18:31:42-06:00</t>
+    <t>2025-04-16T10:37:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -11223,7 +11223,7 @@
         <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>20</v>
@@ -14847,7 +14847,7 @@
         <v>86</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>20</v>
@@ -18473,7 +18473,7 @@
         <v>86</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I135" t="s" s="2">
         <v>20</v>
@@ -22097,7 +22097,7 @@
         <v>86</v>
       </c>
       <c r="H167" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I167" t="s" s="2">
         <v>20</v>
@@ -25721,7 +25721,7 @@
         <v>86</v>
       </c>
       <c r="H199" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I199" t="s" s="2">
         <v>20</v>
@@ -29345,7 +29345,7 @@
         <v>86</v>
       </c>
       <c r="H231" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I231" t="s" s="2">
         <v>20</v>
@@ -32969,7 +32969,7 @@
         <v>86</v>
       </c>
       <c r="H263" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I263" t="s" s="2">
         <v>20</v>
@@ -36595,7 +36595,7 @@
         <v>86</v>
       </c>
       <c r="H295" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I295" t="s" s="2">
         <v>20</v>
@@ -40221,7 +40221,7 @@
         <v>86</v>
       </c>
       <c r="H327" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I327" t="s" s="2">
         <v>20</v>
@@ -43847,7 +43847,7 @@
         <v>86</v>
       </c>
       <c r="H359" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I359" t="s" s="2">
         <v>20</v>
@@ -47473,7 +47473,7 @@
         <v>86</v>
       </c>
       <c r="H391" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I391" t="s" s="2">
         <v>20</v>
@@ -51099,7 +51099,7 @@
         <v>86</v>
       </c>
       <c r="H423" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I423" t="s" s="2">
         <v>20</v>
@@ -54725,7 +54725,7 @@
         <v>86</v>
       </c>
       <c r="H455" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I455" t="s" s="2">
         <v>20</v>
@@ -58351,7 +58351,7 @@
         <v>86</v>
       </c>
       <c r="H487" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I487" t="s" s="2">
         <v>20</v>
@@ -61977,7 +61977,7 @@
         <v>86</v>
       </c>
       <c r="H519" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I519" t="s" s="2">
         <v>20</v>
